--- a/Requisitos/Requisitos Funcionais.xlsx
+++ b/Requisitos/Requisitos Funcionais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor Soares\Desktop\Faculdade\Trab_ES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor Soares\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79E6667-90F2-4268-A7EE-8050BF390AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B27917C-0D50-4720-85C6-BB9E1A7DD3FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{FA788FA8-4C80-4794-AA8A-4CEF3A000907}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Requisitos Funcionais (Controle do pet):</t>
   </si>
@@ -47,12 +47,6 @@
     <t>O software deve controlar a alimentação baseada no peso do animal</t>
   </si>
   <si>
-    <t>O software deve agendar tosas e outros tratamentos higienicos</t>
-  </si>
-  <si>
-    <t>O Software deve prover contato e agendamento com clínicas e veterinários</t>
-  </si>
-  <si>
     <t>Requisitos Funcionais (Localização)</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>CR5</t>
   </si>
   <si>
-    <t>CR6</t>
-  </si>
-  <si>
     <t>LZ1</t>
   </si>
   <si>
@@ -120,6 +111,12 @@
   </si>
   <si>
     <t>Importante</t>
+  </si>
+  <si>
+    <t>!!</t>
+  </si>
+  <si>
+    <t>O software deve agendar tosas, tratamentos higienicos e compromissos médicos do animal</t>
   </si>
 </sst>
 </file>
@@ -169,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -192,17 +189,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDFAC8C-E79D-4F17-87B2-E9AA57574657}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,166 +538,158 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
